--- a/doc/DB設計書/02_DB定義書_C4.xlsx
+++ b/doc/DB設計書/02_DB定義書_C4.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C4\doc\DB設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE67638B-9DDF-4589-AC87-1C6F1E3E012D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22BE43F3-7723-4390-B1D5-79BE76FA08A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" firstSheet="3" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="139">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -685,14 +685,6 @@
     <rPh sb="5" eb="7">
       <t>ナイヨウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>following</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>フォロー</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -865,7 +857,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -888,9 +880,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -1239,8 +1228,8 @@
       <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="10" t="s">
-        <v>138</v>
+      <c r="E2" s="9" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -1253,7 +1242,7 @@
       <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="10">
         <v>45456</v>
       </c>
     </row>
@@ -1336,10 +1325,10 @@
         <v>4</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>25</v>
@@ -1426,7 +1415,7 @@
         <v>9</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>109</v>
@@ -1441,10 +1430,10 @@
         <v>10</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>25</v>
@@ -1681,8 +1670,8 @@
       <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="10" t="s">
-        <v>138</v>
+      <c r="E2" s="9" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -1695,7 +1684,7 @@
       <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="10">
         <v>45456</v>
       </c>
     </row>
@@ -1704,7 +1693,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
@@ -1716,7 +1705,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -2241,10 +2230,10 @@
       <c r="B49" t="s">
         <v>61</v>
       </c>
-      <c r="C49" s="9">
+      <c r="C49" s="8">
         <v>0.47916666666666669</v>
       </c>
-      <c r="D49" s="9">
+      <c r="D49" s="8">
         <v>0.47986111111111113</v>
       </c>
     </row>
@@ -2287,7 +2276,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76AB097E-134E-4D60-8563-340CBC469FF9}">
   <dimension ref="A1:L56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+    <sheetView topLeftCell="A21" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -2317,8 +2306,8 @@
       <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="10" t="s">
-        <v>138</v>
+      <c r="E2" s="9" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -2331,7 +2320,7 @@
       <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="10">
         <v>45456</v>
       </c>
     </row>
@@ -2340,7 +2329,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
@@ -2352,7 +2341,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -2852,10 +2841,10 @@
       <c r="B49" t="s">
         <v>61</v>
       </c>
-      <c r="C49" s="9">
+      <c r="C49" s="8">
         <v>0.47916666666666669</v>
       </c>
-      <c r="D49" s="9">
+      <c r="D49" s="8">
         <v>0.47986111111111113</v>
       </c>
     </row>
@@ -2928,8 +2917,8 @@
       <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="10" t="s">
-        <v>138</v>
+      <c r="E2" s="9" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -2942,7 +2931,7 @@
       <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="10">
         <v>45456</v>
       </c>
     </row>
@@ -3483,8 +3472,8 @@
       <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="10" t="s">
-        <v>138</v>
+      <c r="E2" s="9" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -3497,7 +3486,7 @@
       <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="10">
         <v>45456</v>
       </c>
     </row>
@@ -3966,10 +3955,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5892A2D8-A2F8-4A25-B8FB-BECBC72C778E}">
-  <dimension ref="A1:L34"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -3998,8 +3987,8 @@
       <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="10" t="s">
-        <v>138</v>
+      <c r="E2" s="9" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -4012,7 +4001,7 @@
       <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="10">
         <v>45456</v>
       </c>
     </row>
@@ -4178,35 +4167,27 @@
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
-      <c r="L13" t="str">
-        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>created_at datetime ,</v>
+      <c r="L13" t="e">
+        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>5</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>104</v>
-      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
-      <c r="H14" s="3" t="s">
-        <v>42</v>
-      </c>
+      <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="L14" t="str">
-        <f t="shared" ref="L14:L28" si="0">C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">following boolean </v>
+        <f t="shared" ref="L14:L27" si="0">C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -4229,7 +4210,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -4247,7 +4228,7 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -4265,7 +4246,7 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -4283,7 +4264,7 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -4301,7 +4282,7 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -4319,7 +4300,7 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -4337,7 +4318,7 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -4355,7 +4336,7 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -4373,7 +4354,7 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -4391,7 +4372,7 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -4409,7 +4390,7 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -4427,7 +4408,7 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -4444,45 +4425,27 @@
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="3">
-        <v>20</v>
-      </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="L28" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="L29" t="s">
+      <c r="L28" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D30" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D31" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D32" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="33" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D33" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D34" t="s">
         <v>58</v>
       </c>
     </row>
@@ -4526,8 +4489,8 @@
       <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="10" t="s">
-        <v>138</v>
+      <c r="E2" s="9" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -4540,7 +4503,7 @@
       <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="10">
         <v>45456</v>
       </c>
     </row>
@@ -4549,7 +4512,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
@@ -4561,7 +4524,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -4609,10 +4572,10 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>41</v>
@@ -4982,17 +4945,17 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D31" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D32" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="33" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D33" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="34" spans="4:4" x14ac:dyDescent="0.2">
@@ -5040,8 +5003,8 @@
       <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="10" t="s">
-        <v>138</v>
+      <c r="E2" s="9" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -5054,7 +5017,7 @@
       <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="10">
         <v>45456</v>
       </c>
     </row>
@@ -5698,8 +5661,8 @@
       <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="10" t="s">
-        <v>138</v>
+      <c r="E2" s="9" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -5712,7 +5675,7 @@
       <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="10">
         <v>45456</v>
       </c>
     </row>
@@ -6192,8 +6155,8 @@
       <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="10" t="s">
-        <v>138</v>
+      <c r="E2" s="9" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -6206,7 +6169,7 @@
       <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="10">
         <v>45456</v>
       </c>
     </row>
@@ -6685,8 +6648,8 @@
       <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="10" t="s">
-        <v>138</v>
+      <c r="E2" s="9" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -6699,7 +6662,7 @@
       <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="10">
         <v>45456</v>
       </c>
     </row>
@@ -6827,7 +6790,7 @@
       <c r="B12" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" t="s">
         <v>78</v>
       </c>
       <c r="D12" s="3" t="s">

--- a/doc/DB設計書/02_DB定義書_C4.xlsx
+++ b/doc/DB設計書/02_DB定義書_C4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C4\doc\DB設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22BE43F3-7723-4390-B1D5-79BE76FA08A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04A85C82-FE2A-4C4D-83A3-7832578B1037}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="129">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -400,10 +400,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">リアクションID </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>employee_id</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -454,34 +450,6 @@
   </si>
   <si>
     <t>fileｓ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>higashi</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>test</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>test2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>miura</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>test3</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ハート</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>いいね</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -518,33 +486,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>山田様は登録しました。</t>
-    <rPh sb="0" eb="3">
-      <t>ヤマダサマ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>山田様はコメントしました。</t>
-    <rPh sb="0" eb="2">
-      <t>ヤマダ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>サマ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ユーザー名</t>
-    <rPh sb="4" eb="5">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>コンテンツ</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -688,18 +629,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>membership</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>membership_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>use_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>メンバーID</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -736,6 +665,25 @@
   </si>
   <si>
     <t>memberships_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>booking</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブッキング</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>char</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワードに暗号化されました。</t>
+    <rPh sb="6" eb="9">
+      <t>アンゴウカ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -857,7 +805,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -890,6 +838,9 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1229,7 +1180,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -1295,10 +1246,10 @@
         <v>2</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>25</v>
@@ -1325,10 +1276,10 @@
         <v>4</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>25</v>
@@ -1415,10 +1366,10 @@
         <v>9</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>25</v>
@@ -1430,10 +1381,10 @@
         <v>10</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>25</v>
@@ -1671,7 +1622,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -1693,7 +1644,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
@@ -1705,7 +1656,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -1753,10 +1704,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>41</v>
@@ -1783,10 +1734,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>41</v>
@@ -1807,10 +1758,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>46</v>
@@ -1835,10 +1786,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>46</v>
@@ -1863,10 +1814,10 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>46</v>
@@ -1891,7 +1842,7 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>61</v>
@@ -2152,28 +2103,28 @@
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="C34" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.2">
       <c r="E36" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="F36" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -2184,7 +2135,7 @@
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -2195,35 +2146,35 @@
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="C46" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="D46" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="C47" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="D47" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="C48" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="D48" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.2">
@@ -2239,12 +2190,12 @@
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="C54">
         <v>1</v>
@@ -2252,18 +2203,18 @@
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="C55" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="C56" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -2274,9 +2225,1075 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76AB097E-134E-4D60-8563-340CBC469FF9}">
-  <dimension ref="A1:L56"/>
+  <dimension ref="A1:L49"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="16.109375" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.21875" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" customWidth="1"/>
+    <col min="6" max="6" width="9.77734375" customWidth="1"/>
+    <col min="7" max="7" width="7.21875" customWidth="1"/>
+    <col min="8" max="8" width="9.44140625" customWidth="1"/>
+    <col min="9" max="9" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="19.2" x14ac:dyDescent="0.2">
+      <c r="A1" s="4"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="10">
+        <v>45456</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L9" t="str">
+        <f>"create table "&amp;C5&amp;" ("</f>
+        <v>create table convesations (</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="L10" t="e">
+        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>2</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="7">
+        <v>5</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="L11" t="str">
+        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <v>conversations_id int ,</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="7">
+        <v>5</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="L12" t="str">
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <v>user2_id varchar (5)</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="L13" t="str">
+        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>5</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="L14" t="str">
+        <f t="shared" ref="L14:L28" si="0">C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>6</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="L15" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>8</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="L16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>9</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="L17" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>10</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="L18" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>11</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="L19" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>12</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="L20" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>13</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="L21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>14</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="L22" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>15</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="L23" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>16</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="L24" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <v>17</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="L25" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <v>18</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="L26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
+        <v>19</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="L27" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
+        <v>20</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="L28" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L29" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="49" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECFD3444-BCAB-4818-8D01-833314502601}">
+  <dimension ref="A1:L30"/>
+  <sheetViews>
+    <sheetView topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="16.109375" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.21875" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" customWidth="1"/>
+    <col min="6" max="6" width="9.77734375" customWidth="1"/>
+    <col min="7" max="7" width="7.21875" customWidth="1"/>
+    <col min="8" max="8" width="9.44140625" customWidth="1"/>
+    <col min="9" max="9" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="19.2" x14ac:dyDescent="0.2">
+      <c r="A1" s="4"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="10">
+        <v>45456</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L9" t="str">
+        <f>"create table "&amp;C5&amp;" ("</f>
+        <v>create table users (</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="3">
+        <v>5</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="L10" t="str">
+        <f t="shared" ref="L10:L16" si="0">C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <v>employee_id varchar (5),</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>2</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="3">
+        <v>256</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="L11" t="str">
+        <f t="shared" si="0"/>
+        <v>password varchar (256),</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>3</v>
+      </c>
+      <c r="B12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="3">
+        <v>50</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="L12" t="str">
+        <f t="shared" si="0"/>
+        <v>username varchar (50),</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="3">
+        <v>1024</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="L13" t="str">
+        <f t="shared" si="0"/>
+        <v>icon varchar (1024),</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>5</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="3">
+        <v>200</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="L14" t="str">
+        <f t="shared" si="0"/>
+        <v>lang int (200),</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>6</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="3">
+        <v>50</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="L15" t="str">
+        <f t="shared" si="0"/>
+        <v>birth varchar (50),</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>7</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="L16" t="str">
+        <f t="shared" si="0"/>
+        <v>comment varchar (2000),</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>8</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="L17" t="e">
+        <f>C17&amp;" "&amp;D17&amp;" "&amp;IF(E17&lt;&gt;"","("&amp;E17&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>9</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E18" s="3">
+        <v>10</v>
+      </c>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="L18" t="e">
+        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C19&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>10</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="L19" t="str">
+        <f t="shared" ref="L19:L29" si="1">C19&amp;" "&amp;D19&amp;" "&amp;IF(E19&lt;&gt;"","("&amp;E19&amp;")","")&amp;IF(C20&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>11</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="L20" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>12</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="L21" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>13</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="L22" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>14</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="L23" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>15</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="L24" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <v>16</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="L25" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <v>17</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="L26" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
+        <v>18</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="L27" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
+        <v>19</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="L28" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
+        <v>20</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="L29" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L30" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0113EFAD-6855-4DBF-94BE-4A0E47C51E62}">
+  <dimension ref="A1:L30"/>
+  <sheetViews>
+    <sheetView topLeftCell="A45" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -2307,7 +3324,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -2329,7 +3346,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>135</v>
+        <v>73</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
@@ -2341,7 +3358,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>137</v>
+        <v>82</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -2381,7 +3398,7 @@
       </c>
       <c r="L9" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table convesations (</v>
+        <v>create table langs (</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -2389,15 +3406,15 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>119</v>
+        <v>83</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="D10" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E10" s="7"/>
+      <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
         <v>42</v>
       </c>
@@ -2409,9 +3426,9 @@
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
-      <c r="L10" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
+      <c r="L10" t="str">
+        <f t="shared" ref="L10:L16" si="0">C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <v>id int ,</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -2419,43 +3436,44 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>120</v>
+        <v>38</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E11" s="7">
-        <v>5</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
         <v>42</v>
       </c>
       <c r="I11" s="3"/>
+      <c r="J11" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="L11" t="str">
-        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>conversations_id int ,</v>
+        <f t="shared" si="0"/>
+        <v>user_id int ,</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>3</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>121</v>
+      <c r="B12" t="s">
+        <v>85</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="D12" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E12" s="7">
-        <v>5</v>
+      <c r="E12" s="3">
+        <v>20</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -2465,8 +3483,8 @@
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="L12" t="str">
-        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>user2_id varchar (5)</v>
+        <f t="shared" si="0"/>
+        <v>lang_name varchar (20)</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -2475,15 +3493,15 @@
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="L13" t="str">
-        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -2492,16 +3510,16 @@
         <v>5</v>
       </c>
       <c r="B14" s="3"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="L14" t="str">
-        <f t="shared" ref="L14:L28" si="0">C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -2510,9 +3528,9 @@
         <v>6</v>
       </c>
       <c r="B15" s="3"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
@@ -2525,7 +3543,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -2543,7 +3561,7 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -2554,14 +3572,14 @@
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
-      <c r="L17" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
+      <c r="L17" t="e">
+        <f>C17&amp;" "&amp;D17&amp;" "&amp;IF(E17&lt;&gt;"","("&amp;E17&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -2571,14 +3589,15 @@
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
-      <c r="L18" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
+      <c r="J18" s="3"/>
+      <c r="L18" t="e">
+        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C19&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -2590,13 +3609,13 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="L19" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="L19:L29" si="1">C19&amp;" "&amp;D19&amp;" "&amp;IF(E19&lt;&gt;"","("&amp;E19&amp;")","")&amp;IF(C20&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -2608,13 +3627,13 @@
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="L20" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -2626,13 +3645,13 @@
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="L21" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -2644,13 +3663,13 @@
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="L22" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -2662,13 +3681,13 @@
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="L23" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -2680,13 +3699,13 @@
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="L24" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -2698,13 +3717,13 @@
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
       <c r="L25" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -2716,13 +3735,13 @@
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
       <c r="L26" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -2734,13 +3753,13 @@
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
       <c r="L27" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -2752,129 +3771,31 @@
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="L28" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="L29" t="s">
+      <c r="A29" s="3">
+        <v>20</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="L29" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L30" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B34" t="s">
-        <v>106</v>
-      </c>
-      <c r="C34" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="E36" t="s">
-        <v>105</v>
-      </c>
-      <c r="F36" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B43" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B44" t="s">
-        <v>113</v>
-      </c>
-      <c r="C44">
-        <v>1</v>
-      </c>
-      <c r="D44">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B45" t="s">
-        <v>110</v>
-      </c>
-      <c r="C45">
-        <v>1</v>
-      </c>
-      <c r="D45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B46" t="s">
-        <v>114</v>
-      </c>
-      <c r="C46" t="s">
-        <v>117</v>
-      </c>
-      <c r="D46" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B47" t="s">
-        <v>115</v>
-      </c>
-      <c r="C47" t="s">
-        <v>118</v>
-      </c>
-      <c r="D47" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B48" t="s">
-        <v>116</v>
-      </c>
-      <c r="C48" t="s">
-        <v>105</v>
-      </c>
-      <c r="D48" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B49" t="s">
-        <v>61</v>
-      </c>
-      <c r="C49" s="8">
-        <v>0.47916666666666669</v>
-      </c>
-      <c r="D49" s="8">
-        <v>0.47986111111111113</v>
-      </c>
-    </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B53" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B54" t="s">
-        <v>110</v>
-      </c>
-      <c r="C54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B55" t="s">
-        <v>111</v>
-      </c>
-      <c r="C55" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B56" t="s">
-        <v>112</v>
-      </c>
-      <c r="C56" t="s">
-        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -2883,12 +3804,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECFD3444-BCAB-4818-8D01-833314502601}">
-  <dimension ref="A1:L30"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5892A2D8-A2F8-4A25-B8FB-BECBC72C778E}">
+  <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E3"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -2918,7 +3839,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -2940,7 +3861,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
@@ -2952,7 +3873,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -2992,37 +3913,37 @@
       </c>
       <c r="L9" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table users (</v>
+        <v>create table channels (</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>1</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>38</v>
+      <c r="B10" t="s">
+        <v>63</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E10" s="3">
-        <v>5</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="G10" s="3"/>
+      <c r="G10" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="H10" s="3" t="s">
         <v>42</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
-      <c r="L10" t="str">
-        <f t="shared" ref="L10:L16" si="0">C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>employee_id varchar (5),</v>
+      <c r="L10" t="e">
+        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -3030,16 +3951,16 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>46</v>
       </c>
       <c r="E11" s="3">
-        <v>32</v>
+        <v>100</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
@@ -3047,38 +3968,35 @@
         <v>42</v>
       </c>
       <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
       <c r="L11" t="str">
-        <f t="shared" si="0"/>
-        <v>password varchar (32),</v>
+        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <v>channel_id int ,</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>3</v>
       </c>
-      <c r="B12" t="s">
-        <v>43</v>
+      <c r="B12" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>46</v>
       </c>
       <c r="E12" s="3">
-        <v>50</v>
+        <v>2000</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
-      <c r="H12" s="3" t="s">
-        <v>42</v>
-      </c>
+      <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="L12" t="str">
-        <f t="shared" si="0"/>
-        <v>username varchar (50),</v>
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <v>chComment varchar (2000),</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -3086,66 +4004,50 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E13" s="3">
-        <v>1024</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
-      <c r="L13" t="str">
-        <f t="shared" si="0"/>
-        <v>icon varchar (1024),</v>
+      <c r="L13" t="e">
+        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>5</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E14" s="3">
-        <v>200</v>
-      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="L14" t="str">
-        <f t="shared" si="0"/>
-        <v>lang int (200),</v>
+        <f t="shared" ref="L14:L27" si="0">C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>6</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>62</v>
-      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
@@ -3154,25 +4056,17 @@
       <c r="J15" s="3"/>
       <c r="L15" t="str">
         <f t="shared" si="0"/>
-        <v>birth datetime ,</v>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>7</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E16" s="3">
-        <v>2000</v>
-      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
@@ -3180,35 +4074,25 @@
       <c r="J16" s="3"/>
       <c r="L16" t="str">
         <f t="shared" si="0"/>
-        <v>comment varchar (2000),</v>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>8</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E17" s="3">
-        <v>1000</v>
-      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
-      <c r="H17" s="3" t="s">
-        <v>42</v>
-      </c>
+      <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
-      <c r="L17" t="e">
-        <f>C17&amp;" "&amp;D17&amp;" "&amp;IF(E17&lt;&gt;"","("&amp;E17&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
+      <c r="L17" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
@@ -3224,9 +4108,9 @@
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
-      <c r="L18" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C19&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
+      <c r="L18" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
@@ -3243,7 +4127,7 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="L19" t="str">
-        <f t="shared" ref="L19:L29" si="1">C19&amp;" "&amp;D19&amp;" "&amp;IF(E19&lt;&gt;"","("&amp;E19&amp;")","")&amp;IF(C20&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -3261,7 +4145,7 @@
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="L20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -3279,7 +4163,7 @@
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="L21" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -3297,7 +4181,7 @@
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="L22" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -3315,7 +4199,7 @@
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="L23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -3333,7 +4217,7 @@
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="L24" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -3351,7 +4235,7 @@
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
       <c r="L25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -3369,7 +4253,7 @@
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
       <c r="L26" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -3387,13 +4271,489 @@
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
       <c r="L27" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L28" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{680373C4-FC58-4CD4-B8F8-1FEBB269DDE2}">
+  <dimension ref="A1:L29"/>
+  <sheetViews>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29:E37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="16.109375" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.21875" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" customWidth="1"/>
+    <col min="6" max="6" width="9.77734375" customWidth="1"/>
+    <col min="7" max="7" width="7.21875" customWidth="1"/>
+    <col min="8" max="8" width="9.44140625" customWidth="1"/>
+    <col min="9" max="9" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="19.2" x14ac:dyDescent="0.2">
+      <c r="A1" s="4"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="10">
+        <v>45456</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L9" t="str">
+        <f>"create table "&amp;C5&amp;" ("</f>
+        <v>create table memberships (</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>116</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="L10" t="e">
+        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>2</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="3">
+        <v>5</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="L11" t="str">
+        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <v>memberships_id int ,</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>3</v>
+      </c>
+      <c r="B12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="L12" t="str">
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">channel_id int </v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="L13" t="str">
+        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>5</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="L14" t="str">
+        <f t="shared" ref="L14:L28" si="0">C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>6</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="L15" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>8</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="L16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>9</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="L17" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>10</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="L18" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>11</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="L19" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>12</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="L20" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>13</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="L21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>14</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="L22" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>15</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="L23" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>16</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="L24" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <v>17</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="L25" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <v>18</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="L26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
+        <v>19</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="L27" t="str">
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -3405,30 +4765,12 @@
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="L28" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" s="3">
-        <v>20</v>
-      </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="L29" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="L30" t="s">
+      <c r="L29" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3438,11 +4780,1064 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0113EFAD-6855-4DBF-94BE-4A0E47C51E62}">
-  <dimension ref="A1:L30"/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14EB5633-A00C-4393-A605-5D9AD5ED4A96}">
+  <dimension ref="A1:L49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="16.109375" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.21875" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" customWidth="1"/>
+    <col min="6" max="6" width="9.77734375" customWidth="1"/>
+    <col min="7" max="7" width="7.21875" customWidth="1"/>
+    <col min="8" max="8" width="9.44140625" customWidth="1"/>
+    <col min="9" max="9" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="19.2" x14ac:dyDescent="0.2">
+      <c r="A1" s="4"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="10">
+        <v>45456</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L9" t="str">
+        <f>"create table "&amp;C5&amp;" ("</f>
+        <v>create table posts (</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="I10" s="5"/>
+      <c r="J10" s="3"/>
+      <c r="L10" t="e">
+        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>2</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="L11" t="str">
+        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <v>post_id int ,</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="L12" t="e">
+        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="L13" t="e">
+        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>5</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="L14" t="str">
+        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <v>comments_id int ,</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>6</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="L15" t="e">
+        <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>8</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="L16" t="e">
+        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>9</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I17" s="3"/>
+      <c r="J17" s="6"/>
+      <c r="L17" t="e">
+        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C18&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>10</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="L18" t="str">
+        <f t="shared" ref="L18:L28" si="0">C18&amp;" "&amp;D18&amp;" "&amp;IF(E18&lt;&gt;"","("&amp;E18&amp;")","")&amp;IF(C19&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>11</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="L19" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>12</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="L20" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>13</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="L21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>14</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="L22" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>15</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="L23" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>16</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="L24" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <v>17</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="L25" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <v>18</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="L26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
+        <v>19</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="L27" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
+        <v>20</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="L28" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L29" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B36" s="11"/>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B37" s="11"/>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B38" s="11"/>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B39" s="11"/>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B40" s="11"/>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B41" s="11"/>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B42" s="11"/>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B43" s="11"/>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B44" s="11"/>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B49" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02D5C9D1-D798-4A42-A198-EA8986A5EECB}">
+  <dimension ref="A1:L29"/>
+  <sheetViews>
+    <sheetView topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="16.109375" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.21875" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" customWidth="1"/>
+    <col min="6" max="6" width="9.77734375" customWidth="1"/>
+    <col min="7" max="7" width="7.21875" customWidth="1"/>
+    <col min="8" max="8" width="9.44140625" customWidth="1"/>
+    <col min="9" max="9" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="19.2" x14ac:dyDescent="0.2">
+      <c r="A1" s="4"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="10">
+        <v>45456</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L9" t="str">
+        <f>"create table "&amp;C5&amp;" ("</f>
+        <v>create table reactions (</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="L10" t="e">
+        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="I11" s="5"/>
+      <c r="J11" s="3"/>
+      <c r="L11" t="e">
+        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>3</v>
+      </c>
+      <c r="B12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="3">
+        <v>50</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="L12" t="e">
+        <f>#REF!&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="L13" t="str">
+        <f>C11&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">post_id  </v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>5</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="L14" t="str">
+        <f t="shared" ref="L14:L28" si="0">C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>6</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="L15" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>8</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="L16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>9</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="L17" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>10</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="L18" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>11</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="L19" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>12</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="L20" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>13</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="L21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>14</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="L22" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>15</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="L23" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>16</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="L24" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <v>17</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="L25" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <v>18</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="L26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
+        <v>19</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="L27" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
+        <v>20</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="L28" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L29" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8862CBC-5B37-4DE6-94E1-C1BDB7D479E8}">
+  <dimension ref="A1:L29"/>
+  <sheetViews>
+    <sheetView topLeftCell="A48" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -3473,7 +5868,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -3495,7 +5890,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
@@ -3507,7 +5902,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -3547,7 +5942,7 @@
       </c>
       <c r="L9" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table langs (</v>
+        <v>create table fileｓ (</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -3555,10 +5950,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>41</v>
@@ -3575,20 +5970,20 @@
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
-      <c r="L10" t="str">
-        <f t="shared" ref="L10:L16" si="0">C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>id int ,</v>
+      <c r="L10" t="e">
+        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>2</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>32</v>
+      <c r="B11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>49</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>41</v>
@@ -3600,29 +5995,26 @@
         <v>42</v>
       </c>
       <c r="I11" s="3"/>
-      <c r="J11" s="3" t="s">
-        <v>47</v>
-      </c>
       <c r="L11" t="str">
-        <f t="shared" si="0"/>
-        <v>user_id int ,</v>
+        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <v>id int ,</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>3</v>
       </c>
-      <c r="B12" t="s">
-        <v>93</v>
+      <c r="B12" s="3" t="s">
+        <v>69</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>92</v>
+        <v>57</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>46</v>
       </c>
       <c r="E12" s="3">
-        <v>20</v>
+        <v>1024</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -3632,8 +6024,8 @@
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="L12" t="str">
-        <f t="shared" si="0"/>
-        <v>lang_name varchar (20)</v>
+        <f>C11&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <v>post_id varchar (1024),</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -3641,7 +6033,6 @@
         <v>4</v>
       </c>
       <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -3650,8 +6041,8 @@
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="L13" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
+        <f>C12&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">file_data  </v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -3668,7 +6059,7 @@
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="L14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="L14:L28" si="0">C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -3692,7 +6083,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -3710,7 +6101,7 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -3721,14 +6112,14 @@
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
-      <c r="L17" t="e">
-        <f>C17&amp;" "&amp;D17&amp;" "&amp;IF(E17&lt;&gt;"","("&amp;E17&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
+      <c r="L17" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -3739,14 +6130,14 @@
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
-      <c r="L18" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C19&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
+      <c r="L18" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -3758,13 +6149,13 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="L19" t="str">
-        <f t="shared" ref="L19:L29" si="1">C19&amp;" "&amp;D19&amp;" "&amp;IF(E19&lt;&gt;"","("&amp;E19&amp;")","")&amp;IF(C20&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -3776,13 +6167,13 @@
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="L20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -3794,13 +6185,13 @@
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="L21" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -3812,13 +6203,13 @@
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="L22" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -3830,13 +6221,13 @@
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="L23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -3848,13 +6239,13 @@
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="L24" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -3866,13 +6257,13 @@
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
       <c r="L25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -3884,13 +6275,13 @@
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
       <c r="L26" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -3902,13 +6293,13 @@
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
       <c r="L27" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -3920,30 +6311,12 @@
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="L28" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" s="3">
-        <v>20</v>
-      </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="L29" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="L30" t="s">
+      <c r="L29" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3953,12 +6326,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5892A2D8-A2F8-4A25-B8FB-BECBC72C778E}">
-  <dimension ref="A1:L33"/>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{767C00E1-B418-4711-8CEA-4AD78977ED28}">
+  <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -3988,7 +6361,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -4010,7 +6383,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
@@ -4022,7 +6395,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -4062,7 +6435,7 @@
       </c>
       <c r="L9" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table channels (</v>
+        <v>create table notices (</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -4070,25 +6443,25 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>63</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>58</v>
+        <v>91</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>90</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3" t="s">
+      <c r="E10" s="5"/>
+      <c r="F10" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="H10" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="I10" s="3"/>
+      <c r="I10" s="5"/>
       <c r="J10" s="3"/>
       <c r="L10" t="e">
         <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
@@ -4100,16 +6473,16 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>46</v>
       </c>
       <c r="E11" s="3">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
@@ -4118,8 +6491,8 @@
       </c>
       <c r="I11" s="3"/>
       <c r="L11" t="str">
-        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>channel_id int ,</v>
+        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <v>notices_id int ,</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -4127,517 +6500,17 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>60</v>
+        <v>87</v>
+      </c>
+      <c r="C12" t="s">
+        <v>77</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>46</v>
       </c>
       <c r="E12" s="3">
-        <v>2000</v>
-      </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="L12" t="str">
-        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>chComment varchar (2000),</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
-        <v>4</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="L13" t="e">
-        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
-        <v>5</v>
-      </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="L14" t="str">
-        <f t="shared" ref="L14:L27" si="0">C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
-        <v>6</v>
-      </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="L15" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
-        <v>7</v>
-      </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="L16" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="3">
-        <v>8</v>
-      </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="L17" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="3">
-        <v>9</v>
-      </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="L18" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="3">
-        <v>10</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="L19" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="3">
-        <v>11</v>
-      </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="L20" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="3">
-        <v>12</v>
-      </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="L21" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="3">
-        <v>13</v>
-      </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="L22" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="3">
-        <v>14</v>
-      </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="L23" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="3">
-        <v>15</v>
-      </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="L24" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="3">
-        <v>16</v>
-      </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="L25" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="3">
-        <v>17</v>
-      </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="L26" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" s="3">
-        <v>18</v>
-      </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="L27" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="L28" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D30" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D31" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D32" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D33" t="s">
-        <v>58</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{680373C4-FC58-4CD4-B8F8-1FEBB269DDE2}">
-  <dimension ref="A1:L34"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="16.109375" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" customWidth="1"/>
-    <col min="4" max="4" width="16.21875" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" customWidth="1"/>
-    <col min="6" max="6" width="9.77734375" customWidth="1"/>
-    <col min="7" max="7" width="7.21875" customWidth="1"/>
-    <col min="8" max="8" width="9.44140625" customWidth="1"/>
-    <col min="9" max="9" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.88671875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="19.2" x14ac:dyDescent="0.2">
-      <c r="A1" s="4"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="10">
-        <v>45456</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L9" t="str">
-        <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table memberships (</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
-        <v>1</v>
-      </c>
-      <c r="B10" t="s">
-        <v>130</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="L10" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
-        <v>2</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E11" s="3">
-        <v>5</v>
-      </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="I11" s="3"/>
-      <c r="L11" t="str">
-        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>memberships_id int ,</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
-        <v>3</v>
-      </c>
-      <c r="B12" t="s">
-        <v>63</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
@@ -4646,26 +6519,34 @@
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="L12" t="str">
-        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">channel_id int </v>
+        <f>C11&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <v>employee_id varchar (20),</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>4</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
+      <c r="B13" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>93</v>
+      </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
+      <c r="H13" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
+        <v xml:space="preserve">status boolean </v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -4943,2219 +6824,6 @@
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D31" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D32" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D33" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D34" t="s">
-        <v>58</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14EB5633-A00C-4393-A605-5D9AD5ED4A96}">
-  <dimension ref="A1:L51"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="16.109375" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" customWidth="1"/>
-    <col min="4" max="4" width="16.21875" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" customWidth="1"/>
-    <col min="6" max="6" width="9.77734375" customWidth="1"/>
-    <col min="7" max="7" width="7.21875" customWidth="1"/>
-    <col min="8" max="8" width="9.44140625" customWidth="1"/>
-    <col min="9" max="9" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.88671875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="19.2" x14ac:dyDescent="0.2">
-      <c r="A1" s="4"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="10">
-        <v>45456</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L9" t="str">
-        <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table posts (</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
-        <v>1</v>
-      </c>
-      <c r="B10" t="s">
-        <v>50</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="I10" s="5"/>
-      <c r="J10" s="3"/>
-      <c r="L10" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
-        <v>2</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="L11" t="str">
-        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>post_id int ,</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
-        <v>3</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="L12" t="e">
-        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
-        <v>4</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E13" s="3">
-        <v>1000</v>
-      </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="L13" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
-        <v>5</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="L14" t="str">
-        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v>comments_id int ,</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
-        <v>6</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="L15" t="e">
-        <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
-        <v>8</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="L16" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="3">
-        <v>9</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="I17" s="3"/>
-      <c r="J17" s="6"/>
-      <c r="L17" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C18&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="3">
-        <v>10</v>
-      </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="L18" t="str">
-        <f t="shared" ref="L18:L28" si="0">C18&amp;" "&amp;D18&amp;" "&amp;IF(E18&lt;&gt;"","("&amp;E18&amp;")","")&amp;IF(C19&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="3">
-        <v>11</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="L19" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="3">
-        <v>12</v>
-      </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="L20" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="3">
-        <v>13</v>
-      </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="L21" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="3">
-        <v>14</v>
-      </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="L22" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="3">
-        <v>15</v>
-      </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="L23" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="3">
-        <v>16</v>
-      </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="L24" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="3">
-        <v>17</v>
-      </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="L25" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="3">
-        <v>18</v>
-      </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="L26" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" s="3">
-        <v>19</v>
-      </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="L27" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="3">
-        <v>20</v>
-      </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="L28" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="L29" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B36" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C36">
-        <v>100</v>
-      </c>
-      <c r="D36">
-        <v>101</v>
-      </c>
-      <c r="E36">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B37" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C37">
-        <v>1</v>
-      </c>
-      <c r="D37">
-        <v>1</v>
-      </c>
-      <c r="E37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B38" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C38" t="s">
-        <v>82</v>
-      </c>
-      <c r="D38" t="s">
-        <v>82</v>
-      </c>
-      <c r="E38" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B39" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C39" t="s">
-        <v>83</v>
-      </c>
-      <c r="D39" t="s">
-        <v>84</v>
-      </c>
-      <c r="E39" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B40" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D40">
-        <v>100</v>
-      </c>
-      <c r="E40">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B41" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B42" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B43" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B48" t="s">
-        <v>89</v>
-      </c>
-      <c r="C48">
-        <v>1</v>
-      </c>
-      <c r="D48">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B49" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C49">
-        <v>100</v>
-      </c>
-      <c r="D49">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B50" t="s">
-        <v>70</v>
-      </c>
-      <c r="C50">
-        <v>1</v>
-      </c>
-      <c r="D50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B51" t="s">
-        <v>80</v>
-      </c>
-      <c r="C51" t="s">
-        <v>87</v>
-      </c>
-      <c r="D51" t="s">
-        <v>88</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02D5C9D1-D798-4A42-A198-EA8986A5EECB}">
-  <dimension ref="A1:L29"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="16.109375" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" customWidth="1"/>
-    <col min="4" max="4" width="16.21875" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" customWidth="1"/>
-    <col min="6" max="6" width="9.77734375" customWidth="1"/>
-    <col min="7" max="7" width="7.21875" customWidth="1"/>
-    <col min="8" max="8" width="9.44140625" customWidth="1"/>
-    <col min="9" max="9" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.88671875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="19.2" x14ac:dyDescent="0.2">
-      <c r="A1" s="4"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="10">
-        <v>45456</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L9" t="str">
-        <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table reactions (</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
-        <v>1</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="L10" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
-        <v>2</v>
-      </c>
-      <c r="B11" t="s">
-        <v>50</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="I11" s="5"/>
-      <c r="J11" s="3"/>
-      <c r="L11" t="e">
-        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
-        <v>3</v>
-      </c>
-      <c r="B12" t="s">
-        <v>80</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D12" t="s">
-        <v>46</v>
-      </c>
-      <c r="E12" s="3">
-        <v>50</v>
-      </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="L12" t="e">
-        <f>#REF!&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
-        <v>4</v>
-      </c>
-      <c r="B13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="L13" t="str">
-        <f>C11&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">post_id  </v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
-        <v>5</v>
-      </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="L14" t="str">
-        <f t="shared" ref="L14:L28" si="0">C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
-        <v>6</v>
-      </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="L15" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
-        <v>8</v>
-      </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="L16" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="3">
-        <v>9</v>
-      </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="L17" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="3">
-        <v>10</v>
-      </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="L18" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="3">
-        <v>11</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="L19" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="3">
-        <v>12</v>
-      </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="L20" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="3">
-        <v>13</v>
-      </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="L21" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="3">
-        <v>14</v>
-      </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="L22" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="3">
-        <v>15</v>
-      </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="L23" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="3">
-        <v>16</v>
-      </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="L24" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="3">
-        <v>17</v>
-      </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="L25" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="3">
-        <v>18</v>
-      </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="L26" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" s="3">
-        <v>19</v>
-      </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="L27" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="3">
-        <v>20</v>
-      </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="L28" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="L29" t="s">
-        <v>19</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8862CBC-5B37-4DE6-94E1-C1BDB7D479E8}">
-  <dimension ref="A1:L29"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="16.109375" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" customWidth="1"/>
-    <col min="4" max="4" width="16.21875" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" customWidth="1"/>
-    <col min="6" max="6" width="9.77734375" customWidth="1"/>
-    <col min="7" max="7" width="7.21875" customWidth="1"/>
-    <col min="8" max="8" width="9.44140625" customWidth="1"/>
-    <col min="9" max="9" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.88671875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="19.2" x14ac:dyDescent="0.2">
-      <c r="A1" s="4"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="10">
-        <v>45456</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L9" t="str">
-        <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table fileｓ (</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
-        <v>1</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="L10" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
-        <v>2</v>
-      </c>
-      <c r="B11" t="s">
-        <v>50</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="I11" s="3"/>
-      <c r="L11" t="str">
-        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>id int ,</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
-        <v>3</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E12" s="3">
-        <v>1024</v>
-      </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="L12" t="str">
-        <f>C11&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>post_id varchar (1024),</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
-        <v>4</v>
-      </c>
-      <c r="B13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="L13" t="str">
-        <f>C12&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">file_data  </v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
-        <v>5</v>
-      </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="L14" t="str">
-        <f t="shared" ref="L14:L28" si="0">C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
-        <v>6</v>
-      </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="L15" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
-        <v>8</v>
-      </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="L16" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="3">
-        <v>9</v>
-      </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="L17" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="3">
-        <v>10</v>
-      </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="L18" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="3">
-        <v>11</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="L19" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="3">
-        <v>12</v>
-      </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="L20" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="3">
-        <v>13</v>
-      </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="L21" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="3">
-        <v>14</v>
-      </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="L22" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="3">
-        <v>15</v>
-      </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="L23" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="3">
-        <v>16</v>
-      </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="L24" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="3">
-        <v>17</v>
-      </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="L25" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="3">
-        <v>18</v>
-      </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="L26" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" s="3">
-        <v>19</v>
-      </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="L27" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="3">
-        <v>20</v>
-      </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="L28" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="L29" t="s">
-        <v>19</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{767C00E1-B418-4711-8CEA-4AD78977ED28}">
-  <dimension ref="A1:L42"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="16.109375" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" customWidth="1"/>
-    <col min="4" max="4" width="16.21875" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" customWidth="1"/>
-    <col min="6" max="6" width="9.77734375" customWidth="1"/>
-    <col min="7" max="7" width="7.21875" customWidth="1"/>
-    <col min="8" max="8" width="9.44140625" customWidth="1"/>
-    <col min="9" max="9" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.88671875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="19.2" x14ac:dyDescent="0.2">
-      <c r="A1" s="4"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="10">
-        <v>45456</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L9" t="str">
-        <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table notices (</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
-        <v>1</v>
-      </c>
-      <c r="B10" t="s">
-        <v>102</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="I10" s="5"/>
-      <c r="J10" s="3"/>
-      <c r="L10" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
-        <v>2</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E11" s="3">
-        <v>5</v>
-      </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="I11" s="3"/>
-      <c r="L11" t="str">
-        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>notices_id int ,</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
-        <v>3</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C12" t="s">
-        <v>78</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E12" s="3">
-        <v>20</v>
-      </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="L12" t="str">
-        <f>C11&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>employee_id varchar (20),</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
-        <v>4</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="L13" t="str">
-        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">status boolean </v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
-        <v>5</v>
-      </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="L14" t="str">
-        <f t="shared" ref="L14:L28" si="0">C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
-        <v>6</v>
-      </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="L15" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
-        <v>8</v>
-      </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="L16" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="3">
-        <v>9</v>
-      </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="L17" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="3">
-        <v>10</v>
-      </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="L18" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="3">
-        <v>11</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="L19" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="3">
-        <v>12</v>
-      </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="L20" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="3">
-        <v>13</v>
-      </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="L21" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="3">
-        <v>14</v>
-      </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="L22" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="3">
-        <v>15</v>
-      </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="L23" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="3">
-        <v>16</v>
-      </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="L24" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="3">
-        <v>17</v>
-      </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="L25" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="3">
-        <v>18</v>
-      </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="L26" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" s="3">
-        <v>19</v>
-      </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="L27" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="3">
-        <v>20</v>
-      </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="L28" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="L29" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B36" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B37" t="s">
-        <v>34</v>
-      </c>
-      <c r="C37" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B38" t="s">
-        <v>78</v>
-      </c>
-      <c r="C38" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B39" t="s">
-        <v>100</v>
-      </c>
-      <c r="C39" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B40" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D41" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D42" t="s">
-        <v>96</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
